--- a/総合テスト/カート機能/ST-C-015_結果.xlsx
+++ b/総合テスト/カート機能/ST-C-015_結果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/riku_yamashita_avantcorp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E614B59B-40EA-4A7A-B8CF-EF0B693FF2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C917F85B-8A55-4BE2-B1DB-40EAC1E07BE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A80502-6681-4766-B79A-92115B108C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56755170-7E7F-4EBB-A318-61348F19B88E}"/>
   </bookViews>
@@ -35,9 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>エラーは生じていない（200OK）が無視されており、カートの内容に影響はでていない</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,14 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C805C3AB-5108-449C-8DC5-7BA707B1B12B}">
-  <dimension ref="A1"/>
+  <dimension ref="B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -493,6 +520,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -642,22 +677,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062B119-775F-46A6-9A5F-5A5795D5209B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062B119-775F-46A6-9A5F-5A5795D5209B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F21C25-293D-4DC4-AFC9-F189DFEBC820}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0992B3FD-53B8-4B80-B8C9-5A03C89DBAB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0992B3FD-53B8-4B80-B8C9-5A03C89DBAB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6F21C25-293D-4DC4-AFC9-F189DFEBC820}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>